--- a/InputFiles/INS/TC02_INS_SpecialTopic-HealthDisparities.xlsx
+++ b/InputFiles/INS/TC02_INS_SpecialTopic-HealthDisparities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/Sep2024/Commons_Automation/InputFiles/INS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/gayathri26sep/Commons_Automation/InputFiles/INS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD93AD-7F7D-CE45-B938-7030B9680A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D18AE0D-8CE9-9E41-A97B-872A50D1DE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="2260" windowWidth="25800" windowHeight="17240" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="4440" yWindow="2140" windowWidth="25800" windowHeight="17240" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,10 +94,10 @@
     WHEN prg.program_link IS NOT NULL THEN prg.program_acronym
         ELSE prg.program_link
     END  AS "Website",
-    prg.focus_area AS "Focus Area",
+    prg.focus_area AS "Special Topic",
     prg.cancer_type AS "Cancer Type",
  CASE 
-        WHEN prg.data_link IS NOT NULL THEN prg.website       
+        WHEN prg.data_link IS NOT NULL THEN prg.program_acronym    
         ELSE prg.data_link
     END AS "Data Location Details"
 FROM 
@@ -112,7 +112,7 @@
     <t>SELECT DISTINCT
     prj.project_id AS "Project ID", 
     prj.project_title AS "Project Title",
-    prj.org_name AS "Organization",
+    prj.project_org_name AS "Organization",
     prj.project_start_date AS "Project Start Date",
     prj.project_end_date AS "Project End Date"
 FROM 
@@ -137,7 +137,7 @@
     gnt.principal_investigators AS "Principal Investigators",
     gnt.program_officers AS "Program Officers",
     gnt.fiscal_year AS "Fiscal Year",
-    gnt.project_end_date AS "Project End Date"
+    gnt.grant_end_date AS "Project End Date"
 FROM 
     df_grant gnt
 LEFT JOIN 
@@ -155,13 +155,14 @@
   <si>
     <t>SELECT DISTINCT
     pub.pmid AS "PubMed ID", 
-    pub.title AS "Title",
+    pub.publication_title AS "Title",
     pub.authors AS "Authors",
     pub.publication_date AS "Publication Date",
     pub.cited_by AS "Cited By",
     CASE 
     WHEN pub.relative_citation_ratio = 0 THEN '0'
     WHEN pub.relative_citation_ratio = 7.0 THEN '7'
+WHEN pub.relative_citation_ratio = 1.0 THEN '1'
     WHEN pub.relative_citation_ratio = ROUND(pub.relative_citation_ratio) THEN CAST(ROUND(pub.relative_citation_ratio) AS VARCHAR) 
     ELSE CAST(ROUND(pub.relative_citation_ratio, 2) AS VARCHAR)
 END AS "Relative Citation Ratio"
@@ -184,16 +185,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,14 +240,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -579,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -613,10 +604,10 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
@@ -630,7 +621,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -638,7 +629,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
@@ -647,7 +638,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
@@ -660,7 +651,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
